--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail13 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>8.309266165552886e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3030565010358173</v>
+        <v>2.815557657389212e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.014227633785751</v>
+        <v>1.562996478420684e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.815557657389212e-07</v>
+        <v>-0.02815556085805365</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.562996478420684e-06</v>
+        <v>0.1198409784451946</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02815556085805365</v>
+        <v>0.01513530708441839</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1198409784451946</v>
+        <v>1.758792874604372</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01513530708441839</v>
+        <v>1.327794417016478</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.802496022863657</v>
+        <v>27.4275158789301</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.327794417016478</v>
+        <v>3.234775918152898e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>27.4275158789301</v>
+        <v>3348013856.583415</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.234775918152898e-16</v>
+        <v>3.265976912269099e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3348013856.583415</v>
+        <v>3625.923981831431</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.265976912269099e-08</v>
+        <v>1.199431078994719e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3625.923981831431</v>
+        <v>8.920892116663079</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.199431078994719e-05</v>
+        <v>1.260488420292129</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.920892116663079</v>
+        <v>0.0009545350333725906</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.260488420292129</v>
+        <v>8.26852565929388</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0009545350333725906</v>
+        <v>0.9591700508306553</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.26852565929388</v>
+        <v>0.7681768829395142</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9591700508306553</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7681768829395142</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>9.63648617499627</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>8.559919722232178e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.292898235946526</v>
+        <v>2.839404064614157e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.070720200335907</v>
+        <v>1.560266599439954e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.839404064614157e-07</v>
+        <v>-0.03626191667940436</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.560266599439954e-06</v>
+        <v>0.09311613999523342</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03626191667940436</v>
+        <v>0.00996772357491056</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09311613999523342</v>
+        <v>1.764216795781066</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.00996772357491056</v>
+        <v>1.327067802373931</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.805715528734678</v>
+        <v>27.60751332867161</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.327067802373931</v>
+        <v>3.192732775293331e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>27.60751332867161</v>
+        <v>3391861151.84514</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.192732775293331e-16</v>
+        <v>3.223751044715375e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3391861151.84514</v>
+        <v>3673.150323437282</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.223751044715375e-08</v>
+        <v>1.122719661819027e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3673.150323437282</v>
+        <v>8.821654045285477</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.122719661819027e-05</v>
+        <v>1.267738845687989</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.821654045285477</v>
+        <v>0.0008737181808614574</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.267738845687989</v>
+        <v>8.332662672643458</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0008737181808614574</v>
+        <v>0.9599372181805772</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.332662672643458</v>
+        <v>0.8460575592686208</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9599372181805772</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8460575592686208</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.806863834777522</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>8.778445849482363e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2582556030886474</v>
+        <v>2.857244052598629e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.121243152392505</v>
+        <v>1.556809184124609e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.857244052598629e-07</v>
+        <v>-0.04294178358962142</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.556809184124609e-06</v>
+        <v>0.06693466493087834</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04294178358962142</v>
+        <v>0.006315879325977414</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06693466493087834</v>
+        <v>1.758942824926953</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.006315879325977414</v>
+        <v>1.318557569852425</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.801079507869807</v>
+        <v>27.94839490452458</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.318557569852425</v>
+        <v>3.115325352350821e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>27.94839490452458</v>
+        <v>3474696150.702092</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.115325352350821e-16</v>
+        <v>3.146655349847588e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3474696150.702092</v>
+        <v>3761.292219912549</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.146655349847588e-08</v>
+        <v>1.129215232524983e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3761.292219912549</v>
+        <v>8.274361207474431</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.129215232524983e-05</v>
+        <v>1.316639280453409</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.274361207474431</v>
+        <v>0.0007731178118560907</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.316639280453409</v>
+        <v>8.386668852329063</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0007731178118560907</v>
+        <v>0.9584470241077392</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.386668852329063</v>
+        <v>0.8743048069683532</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9584470241077392</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8743048069683532</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.821390672420415</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>8.941702471162011e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2158824135334989</v>
+        <v>2.869835478594592e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.153229985113511</v>
+        <v>1.552793442962347e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.869835478594592e-07</v>
+        <v>-0.04723060292951391</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.552793442962347e-06</v>
+        <v>0.04938404491648622</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04723060292951391</v>
+        <v>0.004666443029467911</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.04938404491648622</v>
+        <v>1.752670580834327</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004666443029467911</v>
+        <v>1.30963346077779</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.795202463219282</v>
+        <v>28.61971279603944</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.30963346077779</v>
+        <v>2.970890254531745e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>28.61971279603944</v>
+        <v>3641422461.72452</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.970890254531745e-16</v>
+        <v>3.002122743793618e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3641422461.72452</v>
+        <v>3939.3878645208</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.002122743793618e-08</v>
+        <v>1.576381252092742e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3939.3878645208</v>
+        <v>8.065995259486643</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.576381252092742e-05</v>
+        <v>1.805489367238823</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.065995259486643</v>
+        <v>0.001025598049007959</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.805489367238823</v>
+        <v>8.316801276490471</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.001025598049007959</v>
+        <v>0.9576370660293331</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.316801276490471</v>
+        <v>0.8359802183044036</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9576370660293331</v>
+        <v>3</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8359802183044036</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>9.528693839692155</v>
       </c>
     </row>
@@ -4235,7 +4199,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.546649423745941</v>
+        <v>1.563705322737972</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.506477758556154</v>
@@ -4324,7 +4288,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.579280497399865</v>
+        <v>1.596370729971362</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.513947070458474</v>
@@ -4413,7 +4377,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618343461137359</v>
+        <v>1.624396500469138</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.712891924847462</v>
@@ -4502,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.653268952871193</v>
+        <v>1.645501121902172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.480840550726977</v>
@@ -4591,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.640336555662227</v>
+        <v>1.633812410737934</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.398740967441151</v>
@@ -4680,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.664670545006712</v>
+        <v>1.649155122091615</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.565522965300719</v>
@@ -4769,7 +4733,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.694115879468264</v>
+        <v>1.67873948043305</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.62920687606308</v>
@@ -4858,7 +4822,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.714276957922081</v>
+        <v>1.698170581310531</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.676179290818983</v>
@@ -4947,7 +4911,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.67803756949039</v>
+        <v>1.666982459881712</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.683050492037749</v>
@@ -5036,7 +5000,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675214594955903</v>
+        <v>1.664155514804486</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.611072168433217</v>
@@ -5125,7 +5089,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.695285982955229</v>
+        <v>1.681259614654875</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.484263767479393</v>
@@ -5214,7 +5178,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.702140805879641</v>
+        <v>1.68946142820329</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.596889162444418</v>
@@ -5303,7 +5267,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.712682056709709</v>
+        <v>1.700880113788573</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.76673767182504</v>
@@ -5392,7 +5356,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71429383518583</v>
+        <v>1.705847952849186</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.695719496708348</v>
@@ -5481,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.713936438715114</v>
+        <v>1.713705746334758</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.794140826554296</v>
@@ -5570,7 +5534,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.712748130680307</v>
+        <v>1.715769712438122</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.745368000560918</v>
@@ -5659,7 +5623,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.685494493711127</v>
+        <v>1.695962835921692</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.462970736756281</v>
@@ -5748,7 +5712,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.464723199441633</v>
+        <v>1.487120177545985</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.663801729145821</v>
@@ -5837,7 +5801,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.442123832795803</v>
+        <v>1.466476779043855</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.671969725584268</v>
@@ -5926,7 +5890,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529060356138327</v>
+        <v>1.554509052113799</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.756924954869799</v>
@@ -6015,7 +5979,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.553502210936602</v>
+        <v>1.57878254200225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.774955770000508</v>
@@ -6104,7 +6068,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.547473422536061</v>
+        <v>1.572975601715969</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.767210886063324</v>
@@ -6193,7 +6157,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533108936928985</v>
+        <v>1.556740460279115</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.767562781783507</v>
@@ -6282,7 +6246,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533197654251279</v>
+        <v>1.555628887098367</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.775439643851221</v>
@@ -6371,7 +6335,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.530007562161946</v>
+        <v>1.553491080199495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.76654500932465</v>
@@ -6460,7 +6424,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.517699116446838</v>
+        <v>1.542608892507901</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.773689137536238</v>
@@ -6549,7 +6513,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.516717364335915</v>
+        <v>1.542349946401613</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.780476523887573</v>
@@ -6638,7 +6602,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.503014206463917</v>
+        <v>1.527926291094495</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.783760944352834</v>
@@ -6727,7 +6691,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.500885401542883</v>
+        <v>1.524585635945982</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.781231929966415</v>
@@ -6816,7 +6780,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495539322387544</v>
+        <v>1.518278521473742</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.763928786765532</v>
@@ -6905,7 +6869,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495141960810263</v>
+        <v>1.517857403057233</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.764279220875441</v>
@@ -6994,7 +6958,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505777227702608</v>
+        <v>1.525461716770671</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.689715049041799</v>
@@ -7083,7 +7047,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.669305438736939</v>
+        <v>1.680306101255009</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.431056168530868</v>
@@ -7172,7 +7136,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.707188534794281</v>
+        <v>1.714038536044651</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.664557429520822</v>
@@ -7261,7 +7225,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626294585301447</v>
+        <v>1.64241708597474</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.624196612149623</v>
@@ -7350,7 +7314,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.596320675039146</v>
+        <v>1.61915891426329</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.547065963167209</v>
@@ -7439,7 +7403,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.615105839818734</v>
+        <v>1.639305716139277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.520516383255052</v>
@@ -7528,7 +7492,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.637705552340191</v>
+        <v>1.664300423650309</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.785369386841317</v>
@@ -7617,7 +7581,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672976248151846</v>
+        <v>1.706699723733396</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.759205909893498</v>
@@ -7706,7 +7670,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.685964107469422</v>
+        <v>1.713041940098418</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.832836236375224</v>
@@ -7795,7 +7759,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.718964999028161</v>
+        <v>1.746316454101132</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.569786450936027</v>
@@ -7884,7 +7848,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.738058492917485</v>
+        <v>1.762177348742853</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.371194540118731</v>
@@ -7973,7 +7937,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.756026456011934</v>
+        <v>1.775829631457282</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.950612601379038</v>
@@ -8062,7 +8026,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.758384913203622</v>
+        <v>1.779784297210627</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.965212114749813</v>
@@ -8151,7 +8115,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.765151752689338</v>
+        <v>1.789204149402907</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.9906578203581</v>
@@ -8240,7 +8204,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.775875965827783</v>
+        <v>1.803835730337355</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.848294626972133</v>
@@ -8329,7 +8293,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.794327650342413</v>
+        <v>1.819209132845666</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.784831101019962</v>
@@ -8418,7 +8382,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.829615140817482</v>
+        <v>1.848235253946728</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.050855030144398</v>
@@ -8507,7 +8471,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.837949227134516</v>
+        <v>1.858004103790245</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.164603426473422</v>
@@ -8793,7 +8757,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615047962129061</v>
+        <v>1.606436951316738</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.055802670653433</v>
@@ -8882,7 +8846,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.615877776850864</v>
+        <v>1.604624544186737</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.108249127978908</v>
@@ -8971,7 +8935,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.622768165708965</v>
+        <v>1.615466122617201</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.90155357971167</v>
@@ -9060,7 +9024,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.630868512297756</v>
+        <v>1.611253599985211</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.979133921493726</v>
@@ -9149,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630730249301419</v>
+        <v>1.612813019801975</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.082421152617954</v>
@@ -9238,7 +9202,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644258126332394</v>
+        <v>1.620518007208911</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.856258121382515</v>
@@ -9327,7 +9291,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.665052286862796</v>
+        <v>1.63750868003323</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.83554421962356</v>
@@ -9416,7 +9380,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.68797432052618</v>
+        <v>1.650147320874347</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.064562692271091</v>
@@ -9505,7 +9469,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.674097064049564</v>
+        <v>1.636270378676752</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.248465524422429</v>
@@ -9594,7 +9558,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.671811411860856</v>
+        <v>1.627639440970684</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.450113870354034</v>
@@ -9683,7 +9647,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.675753478655356</v>
+        <v>1.634157690959774</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.423705891212723</v>
@@ -9772,7 +9736,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.677457078133342</v>
+        <v>1.641052411750508</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.165234442501489</v>
@@ -9861,7 +9825,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.68853631218073</v>
+        <v>1.657976891075534</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.269583310925237</v>
@@ -9950,7 +9914,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.697482307343127</v>
+        <v>1.669786096683549</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.316734054609819</v>
@@ -10039,7 +10003,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.687522500646629</v>
+        <v>1.664456633578987</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.256200657053443</v>
@@ -10128,7 +10092,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.692930294673958</v>
+        <v>1.668128455634847</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.77159119396794</v>
@@ -10217,7 +10181,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.691796799840617</v>
+        <v>1.67033551445935</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.134673407470231</v>
@@ -10306,7 +10270,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651963813509433</v>
+        <v>1.637665158281234</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.642448150251947</v>
@@ -10395,7 +10359,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661680599727678</v>
+        <v>1.650587500302031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.630659180558279</v>
@@ -10484,7 +10448,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.808416489915479</v>
+        <v>1.784839404433844</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.096564038678641</v>
@@ -10573,7 +10537,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.825014051617167</v>
+        <v>1.806278470814666</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.205147693673287</v>
@@ -10662,7 +10626,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.82798389742821</v>
+        <v>1.812672258657834</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.220628572926194</v>
@@ -10751,7 +10715,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.831780855802929</v>
+        <v>1.822086651035892</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.22848882192915</v>
@@ -10840,7 +10804,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.832378600291373</v>
+        <v>1.823655445823565</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.267313949623071</v>
@@ -10929,7 +10893,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.842459031244462</v>
+        <v>1.835220321004084</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.314177592989477</v>
@@ -11018,7 +10982,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.849641616481179</v>
+        <v>1.841179430843331</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.340814442745415</v>
@@ -11107,7 +11071,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.858939277577183</v>
+        <v>1.848842353529893</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.327280962042614</v>
@@ -11196,7 +11160,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.852229498651931</v>
+        <v>1.838407944312475</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.303317545037211</v>
@@ -11285,7 +11249,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.855639379374145</v>
+        <v>1.839121471452372</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.287214592669236</v>
@@ -11374,7 +11338,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.857994761532817</v>
+        <v>1.841204178244251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.319239719891488</v>
@@ -11463,7 +11427,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.857894033170371</v>
+        <v>1.840534772420912</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.314376134342056</v>
@@ -11552,7 +11516,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.855274819881994</v>
+        <v>1.835699132487762</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.277545857625546</v>
@@ -11641,7 +11605,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.869622384110313</v>
+        <v>1.845847491423129</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.297418226855064</v>
@@ -11730,7 +11694,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.868489532461437</v>
+        <v>1.844836166960098</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.247300428999292</v>
@@ -11819,7 +11783,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.777998907153867</v>
+        <v>1.769279257750457</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.745919275009824</v>
@@ -11908,7 +11872,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.727323236203121</v>
+        <v>1.723961338908838</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.514567319263934</v>
@@ -11997,7 +11961,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.716787296172188</v>
+        <v>1.710597698034751</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.680046663402668</v>
@@ -12086,7 +12050,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.701216926456325</v>
+        <v>1.690735591623196</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.412437293649922</v>
@@ -12175,7 +12139,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706864534962486</v>
+        <v>1.697658871972489</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.343464628171032</v>
@@ -12264,7 +12228,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.693325559534592</v>
+        <v>1.677480964241267</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.479830466431619</v>
@@ -12353,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.663411646916532</v>
+        <v>1.650461075500598</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.271518515654518</v>
@@ -12442,7 +12406,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662592612673122</v>
+        <v>1.647586341297178</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.437055783868886</v>
@@ -12531,7 +12495,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663638964812471</v>
+        <v>1.654038459891993</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.282252369242553</v>
@@ -12620,7 +12584,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.669192305911833</v>
+        <v>1.659533223766701</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.332329128396179</v>
@@ -12709,7 +12673,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.675813551002951</v>
+        <v>1.666589259681654</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.321053277810037</v>
@@ -12798,7 +12762,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.685961181627277</v>
+        <v>1.675753998063111</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.413750660239645</v>
@@ -12887,7 +12851,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.690279688911354</v>
+        <v>1.686581208792073</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.33867329503062</v>
@@ -12976,7 +12940,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.704631686150112</v>
+        <v>1.697229943115633</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.474742620863504</v>
@@ -13065,7 +13029,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.714712982636619</v>
+        <v>1.708829591608564</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.42797025990516</v>
@@ -13351,7 +13315,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.693173057688261</v>
+        <v>1.674793836607874</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.396806551266741</v>
@@ -13440,7 +13404,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.703597119398159</v>
+        <v>1.681883314500635</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.638449915775016</v>
@@ -13529,7 +13493,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.708039617425513</v>
+        <v>1.686226058103638</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.369717886782751</v>
@@ -13618,7 +13582,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71671001517761</v>
+        <v>1.688774034448221</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.163664161134684</v>
@@ -13707,7 +13671,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.709446852503455</v>
+        <v>1.685701390273745</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.11366135967465</v>
@@ -13796,7 +13760,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.712422411026948</v>
+        <v>1.691496433171543</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.258414145346801</v>
@@ -13885,7 +13849,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.70961713518937</v>
+        <v>1.688250944982079</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.10158712557427</v>
@@ -13974,7 +13938,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.718322771482091</v>
+        <v>1.693449881354497</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.506838463191349</v>
@@ -14063,7 +14027,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.722360701788969</v>
+        <v>1.695349700147233</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.132750056487409</v>
@@ -14152,7 +14116,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.722988052795266</v>
+        <v>1.694499022385383</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.136388879736484</v>
@@ -14241,7 +14205,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.740157167517595</v>
+        <v>1.707006543063822</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.281975141748108</v>
@@ -14330,7 +14294,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.742430619820144</v>
+        <v>1.709890758423012</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.773663250485667</v>
@@ -14419,7 +14383,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.77765376677457</v>
+        <v>1.734146826569562</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.500794957262072</v>
@@ -14508,7 +14472,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.77605294689987</v>
+        <v>1.728738899707265</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.644591412602274</v>
@@ -14597,7 +14561,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.76982957036012</v>
+        <v>1.72301245892899</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.757583657378559</v>
@@ -14686,7 +14650,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.773524718236391</v>
+        <v>1.729551264459945</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.917496202792929</v>
@@ -14775,7 +14739,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.771899266040419</v>
+        <v>1.725658848089462</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.212811206740465</v>
@@ -14864,7 +14828,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.714415242214909</v>
+        <v>1.675233167323408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.757765825133231</v>
@@ -14953,7 +14917,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.715656996266455</v>
+        <v>1.681765321236038</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.789183450491075</v>
@@ -15042,7 +15006,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.863613312909361</v>
+        <v>1.815271537290992</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.211552882129684</v>
@@ -15131,7 +15095,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.86747111356018</v>
+        <v>1.820320881434663</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.336938772809312</v>
@@ -15220,7 +15184,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.865643549440554</v>
+        <v>1.819941539641915</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.310308849118712</v>
@@ -15309,7 +15273,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.862278411798401</v>
+        <v>1.82174737599016</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.350874210074742</v>
@@ -15398,7 +15362,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.86252501703034</v>
+        <v>1.822074891202955</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.346849793496848</v>
@@ -15487,7 +15451,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.86905968750889</v>
+        <v>1.83165246446248</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.364615604393275</v>
@@ -15576,7 +15540,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.864296432503147</v>
+        <v>1.825628443081201</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.394912082181692</v>
@@ -15665,7 +15629,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.862267092669866</v>
+        <v>1.823546499998504</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.392472243769571</v>
@@ -15754,7 +15718,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.859120433194396</v>
+        <v>1.822674357160296</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.409570550658888</v>
@@ -15843,7 +15807,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.86037697300591</v>
+        <v>1.825187108278925</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.415415072281226</v>
@@ -15932,7 +15896,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.862269861509527</v>
+        <v>1.826774906108952</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.370435716615869</v>
@@ -16021,7 +15985,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.858858030820887</v>
+        <v>1.823568141163838</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.363237841735596</v>
@@ -16110,7 +16074,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.855486039800669</v>
+        <v>1.82188955889473</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.39333772229506</v>
@@ -16199,7 +16163,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.879198720798497</v>
+        <v>1.842454202807605</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.396102917490807</v>
@@ -16288,7 +16252,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.884662695527268</v>
+        <v>1.844039005400901</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.330300738954567</v>
@@ -16377,7 +16341,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.778895187886721</v>
+        <v>1.756202714828436</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.692337250411237</v>
@@ -16466,7 +16430,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.732022874108641</v>
+        <v>1.71617476426517</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.548744910770349</v>
@@ -16555,7 +16519,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.725327042954828</v>
+        <v>1.712277527945167</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.565151016840648</v>
@@ -16644,7 +16608,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.71998705675999</v>
+        <v>1.706419637649044</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.425657594141446</v>
@@ -16733,7 +16697,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723805768611962</v>
+        <v>1.70794708227945</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.359175779472727</v>
@@ -16822,7 +16786,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.711422901738748</v>
+        <v>1.698810852005007</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.449338382791773</v>
@@ -16911,7 +16875,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701203413928265</v>
+        <v>1.695068031405818</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.298502697058183</v>
@@ -17000,7 +16964,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.7163004883109</v>
+        <v>1.709720248571349</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.226418535919661</v>
@@ -17089,7 +17053,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.722940561169063</v>
+        <v>1.716117486992672</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.347900592980253</v>
@@ -17178,7 +17142,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.731774703553442</v>
+        <v>1.725491391336491</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.36471160650217</v>
@@ -17267,7 +17231,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.739155697023693</v>
+        <v>1.734251689398973</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.423306588940059</v>
@@ -17356,7 +17320,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.746754534721513</v>
+        <v>1.737576826331983</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.379800954411505</v>
@@ -17445,7 +17409,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.754499436291836</v>
+        <v>1.749728196599942</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.440785004514019</v>
@@ -17534,7 +17498,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.754402401711113</v>
+        <v>1.749523771770829</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.485182728270888</v>
@@ -17623,7 +17587,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.762051000859401</v>
+        <v>1.758724912901993</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.369195035275066</v>
@@ -17909,7 +17873,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.750313291131852</v>
+        <v>1.73584215727762</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.18831475710421</v>
@@ -17998,7 +17962,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.760500863087967</v>
+        <v>1.741488283308494</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.228135241928682</v>
@@ -18087,7 +18051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.759693095177851</v>
+        <v>1.735960036147171</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.861636099693248</v>
@@ -18176,7 +18140,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.780710513735374</v>
+        <v>1.747146845929745</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.094779684700253</v>
@@ -18265,7 +18229,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.781720683103427</v>
+        <v>1.747909877863057</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.898190553800364</v>
@@ -18354,7 +18318,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.782881420030379</v>
+        <v>1.753304199790671</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.957549540414184</v>
@@ -18443,7 +18407,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.787134460845518</v>
+        <v>1.750957662012707</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.247186035092226</v>
@@ -18532,7 +18496,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.794097332096958</v>
+        <v>1.747664194392876</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.030511732361863</v>
@@ -18621,7 +18585,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.790776352109397</v>
+        <v>1.743890273587559</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.073268037648029</v>
@@ -18710,7 +18674,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.782768184219465</v>
+        <v>1.738748749056191</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.167203166245597</v>
@@ -18799,7 +18763,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.805893907061831</v>
+        <v>1.753280660069118</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.654806658302039</v>
@@ -18888,7 +18852,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.808144077467926</v>
+        <v>1.761915182952814</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.459870063996847</v>
@@ -18977,7 +18941,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.823177130748753</v>
+        <v>1.775667708773206</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.304876302303719</v>
@@ -19066,7 +19030,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.818908133104432</v>
+        <v>1.770664909797968</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.16237608857989</v>
@@ -19155,7 +19119,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.823983400666566</v>
+        <v>1.775503645185773</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.701683709424865</v>
@@ -19244,7 +19208,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.829972531766464</v>
+        <v>1.783420565881913</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.436629703215583</v>
@@ -19333,7 +19297,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.824363167696565</v>
+        <v>1.781176138958955</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.89031961154581</v>
@@ -19422,7 +19386,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.778886382914046</v>
+        <v>1.750787352172622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.88068200417827</v>
@@ -19511,7 +19475,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.756127941489601</v>
+        <v>1.735857036740825</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.962616224193132</v>
@@ -19600,7 +19564,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.871483661918893</v>
+        <v>1.849659123566276</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.42006502802925</v>
@@ -19689,7 +19653,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.891780977707993</v>
+        <v>1.87853884986701</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.595810657234403</v>
@@ -19778,7 +19742,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.893754167112663</v>
+        <v>1.887563943378252</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.622997292975001</v>
@@ -19867,7 +19831,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.887462038596063</v>
+        <v>1.88777444940898</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.573976093560867</v>
@@ -19956,7 +19920,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.889142158352398</v>
+        <v>1.889324622014554</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.624034430552653</v>
@@ -20045,7 +20009,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.88985013505852</v>
+        <v>1.890069458039306</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.597359967867117</v>
@@ -20134,7 +20098,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.889819349802507</v>
+        <v>1.889217840045068</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.585683655164499</v>
@@ -20223,7 +20187,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.891439799686756</v>
+        <v>1.89084372615408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.641411665497991</v>
@@ -20312,7 +20276,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.884189471719555</v>
+        <v>1.88277032628554</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.616142585540001</v>
@@ -20401,7 +20365,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.886019042855114</v>
+        <v>1.884113574773946</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.574735426580881</v>
@@ -20490,7 +20454,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.882096785028224</v>
+        <v>1.878159000215837</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.606592718822018</v>
@@ -20579,7 +20543,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.880083273354116</v>
+        <v>1.873176174679902</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.584595019546144</v>
@@ -20668,7 +20632,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.87448341385109</v>
+        <v>1.869308617903635</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.593175199083664</v>
@@ -20757,7 +20721,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.899970870069415</v>
+        <v>1.887390154000297</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.627570015274088</v>
@@ -20846,7 +20810,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.91087121764755</v>
+        <v>1.897699037309837</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.498098125759236</v>
@@ -20935,7 +20899,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.834515590642119</v>
+        <v>1.826833855338681</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.806250867451013</v>
@@ -21024,7 +20988,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.770086007474941</v>
+        <v>1.757409762695934</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.465149122284496</v>
@@ -21113,7 +21077,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.746099318371413</v>
+        <v>1.734642969760084</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.523601696855814</v>
@@ -21202,7 +21166,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.754363307005633</v>
+        <v>1.740944801561224</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.490595964245808</v>
@@ -21291,7 +21255,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.761856215516758</v>
+        <v>1.747694910996349</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.65884413979453</v>
@@ -21380,7 +21344,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.768751931906621</v>
+        <v>1.757685064664846</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.544366260575703</v>
@@ -21469,7 +21433,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.758409536872972</v>
+        <v>1.756393451504683</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.619952290059703</v>
@@ -21558,7 +21522,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761315189851465</v>
+        <v>1.760937076930713</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.394964671569108</v>
@@ -21647,7 +21611,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.765369360084714</v>
+        <v>1.770299433448826</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.49777116948083</v>
@@ -21736,7 +21700,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.772764484518534</v>
+        <v>1.776965376449415</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.48343153389187</v>
@@ -21825,7 +21789,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.771095908957123</v>
+        <v>1.777203585463274</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.491522899965322</v>
@@ -21914,7 +21878,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.774612346106315</v>
+        <v>1.785293283388338</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.506505667012597</v>
@@ -22003,7 +21967,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.78992682124662</v>
+        <v>1.80058838139829</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.640006947632561</v>
@@ -22092,7 +22056,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.796162219349398</v>
+        <v>1.803202011357078</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.515042722914308</v>
@@ -22181,7 +22145,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.796200961295847</v>
+        <v>1.801895829925957</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.499072823931003</v>
@@ -22467,7 +22431,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.524585283285534</v>
+        <v>1.535350907517315</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.739691551293926</v>
@@ -22556,7 +22520,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.54470232029188</v>
+        <v>1.554873843476192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.940928794183857</v>
@@ -22645,7 +22609,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.549575368621574</v>
+        <v>1.566272349791675</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.800693508218762</v>
@@ -22734,7 +22698,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.563688395001092</v>
+        <v>1.570162899417955</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.81382098947749</v>
@@ -22823,7 +22787,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.550338826870972</v>
+        <v>1.561681654580309</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.811697447093378</v>
@@ -22912,7 +22876,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.556442661375335</v>
+        <v>1.562601415144393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.801908535764169</v>
@@ -23001,7 +22965,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.576479778571013</v>
+        <v>1.580361725533077</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.506255850428626</v>
@@ -23090,7 +23054,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600508512777643</v>
+        <v>1.598877859886777</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.22467357141033</v>
@@ -23179,7 +23143,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.592225249190962</v>
+        <v>1.583113500450507</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.318744870468505</v>
@@ -23268,7 +23232,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56311311296756</v>
+        <v>1.565612012020868</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.072737393333831</v>
@@ -23357,7 +23321,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.566917212989848</v>
+        <v>1.568167145251141</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.144127298737887</v>
@@ -23446,7 +23410,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.558251498377421</v>
+        <v>1.556396419777039</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.768242070998027</v>
@@ -23535,7 +23499,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560730503961074</v>
+        <v>1.561090135485323</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.776860894189117</v>
@@ -23624,7 +23588,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.555447724996727</v>
+        <v>1.554449811517669</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.933245524922386</v>
@@ -23713,7 +23677,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.547459203628615</v>
+        <v>1.545308149239071</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.005407303372412</v>
@@ -23802,7 +23766,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.545620376563404</v>
+        <v>1.541199030342855</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.825817948942643</v>
@@ -23891,7 +23855,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544161184298172</v>
+        <v>1.541430835446672</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.696711465861633</v>
@@ -23980,7 +23944,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.510002451267402</v>
+        <v>1.507352383162107</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.778489147301899</v>
@@ -24069,7 +24033,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.50824099256974</v>
+        <v>1.51047261243649</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.617193934293646</v>
@@ -24158,7 +24122,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.767576834762103</v>
+        <v>1.7634116754927</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.175318905578671</v>
@@ -24247,7 +24211,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.817419417560139</v>
+        <v>1.816736875197868</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.304644856826212</v>
@@ -24336,7 +24300,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.804288473952069</v>
+        <v>1.811881345173479</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.385482804350629</v>
@@ -24425,7 +24389,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.803078876874818</v>
+        <v>1.812768191909913</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.351788696934704</v>
@@ -24514,7 +24478,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.806359786095037</v>
+        <v>1.816615211840723</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.344428617629728</v>
@@ -24603,7 +24567,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.810833733731276</v>
+        <v>1.819385648678042</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.411461065129741</v>
@@ -24692,7 +24656,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.811586600774346</v>
+        <v>1.819405970592782</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.368489308647328</v>
@@ -24781,7 +24745,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.813538577966416</v>
+        <v>1.819807448404538</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.379627958750825</v>
@@ -24870,7 +24834,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.813836157872409</v>
+        <v>1.819000409856143</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.377497392472721</v>
@@ -24959,7 +24923,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.815582442470033</v>
+        <v>1.819709609888442</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.386018051701534</v>
@@ -25048,7 +25012,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.81993395052738</v>
+        <v>1.822647024188162</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.420835167583472</v>
@@ -25137,7 +25101,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.821597571498296</v>
+        <v>1.823786738561166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.406520140284048</v>
@@ -25226,7 +25190,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.82234927171241</v>
+        <v>1.82376656999132</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.435563338860746</v>
@@ -25315,7 +25279,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.84531840189204</v>
+        <v>1.842471127602953</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.398203746771149</v>
@@ -25404,7 +25368,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.846354788828733</v>
+        <v>1.84369328383147</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.448271872793346</v>
@@ -25493,7 +25457,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.711687565766731</v>
+        <v>1.718551913441041</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.690479407439236</v>
@@ -25582,7 +25546,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.57589013755245</v>
+        <v>1.581166755914588</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.512549010930741</v>
@@ -25671,7 +25635,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.563091444948791</v>
+        <v>1.559342073626169</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.181354863787791</v>
@@ -25760,7 +25724,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563094938536313</v>
+        <v>1.553892737427823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.414458191743624</v>
@@ -25849,7 +25813,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.574077106550435</v>
+        <v>1.557340040328114</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.395317612462082</v>
@@ -25938,7 +25902,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.576865027945796</v>
+        <v>1.561842120800361</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.312398571340107</v>
@@ -26027,7 +25991,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576419580221787</v>
+        <v>1.564845017133793</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.296266712382026</v>
@@ -26116,7 +26080,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577150500717476</v>
+        <v>1.566632804015458</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.33218614076626</v>
@@ -26205,7 +26169,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.580124438812491</v>
+        <v>1.573143438117367</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.390069687161003</v>
@@ -26294,7 +26258,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582188815618109</v>
+        <v>1.576468648880004</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.438556345142485</v>
@@ -26383,7 +26347,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586977910899817</v>
+        <v>1.583815368305397</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.248308963258087</v>
@@ -26472,7 +26436,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.589790845591671</v>
+        <v>1.586407555221174</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.334752834460077</v>
@@ -26561,7 +26525,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58379194754515</v>
+        <v>1.581377108042949</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.350667695420507</v>
@@ -26650,7 +26614,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.58512640482619</v>
+        <v>1.581908781757769</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.215330603832939</v>
@@ -26739,7 +26703,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.596307156802831</v>
+        <v>1.590306755855274</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.32239529943464</v>
@@ -27025,7 +26989,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469574596490618</v>
+        <v>1.499721538756792</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.316605052961751</v>
@@ -27114,7 +27078,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492587763807491</v>
+        <v>1.525062968514748</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.298822084435967</v>
@@ -27203,7 +27167,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530099575545578</v>
+        <v>1.56233938403511</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.187668320606651</v>
@@ -27292,7 +27256,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552000200053375</v>
+        <v>1.576876517746603</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.328007372128917</v>
@@ -27381,7 +27345,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.555245541944742</v>
+        <v>1.585546580905875</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.350362302801739</v>
@@ -27470,7 +27434,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.575304952767471</v>
+        <v>1.598430712182848</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.436658085551946</v>
@@ -27559,7 +27523,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605199869028326</v>
+        <v>1.626139058115597</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.214566582444059</v>
@@ -27648,7 +27612,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.632195310045525</v>
+        <v>1.658187112804455</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.311960179207278</v>
@@ -27737,7 +27701,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615946384062442</v>
+        <v>1.643424652363793</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.355060321731092</v>
@@ -27826,7 +27790,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.615194517959928</v>
+        <v>1.64245836347873</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.349363312065787</v>
@@ -27915,7 +27879,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.655565287560866</v>
+        <v>1.679099646053185</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.481254203139779</v>
@@ -28004,7 +27968,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668523148554872</v>
+        <v>1.690040492257194</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.808641432377992</v>
@@ -28093,7 +28057,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.676606672653561</v>
+        <v>1.696683743840144</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.604115615731849</v>
@@ -28182,7 +28146,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686611122878805</v>
+        <v>1.706959268311532</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.679516504673445</v>
@@ -28271,7 +28235,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.691408010310395</v>
+        <v>1.714159070370945</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.74837451454155</v>
@@ -28360,7 +28324,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.697603019688007</v>
+        <v>1.717305005073513</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.764637215949833</v>
@@ -28449,7 +28413,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.710150655792962</v>
+        <v>1.731827876955936</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.758061473451311</v>
@@ -28538,7 +28502,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.67442687887626</v>
+        <v>1.694041835663631</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.602431091180254</v>
@@ -28627,7 +28591,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634813007785332</v>
+        <v>1.656669466049259</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.49550633568487</v>
@@ -28716,7 +28680,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.7109941978032</v>
+        <v>1.727310635288193</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.678675084236524</v>
@@ -28805,7 +28769,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.748169756290984</v>
+        <v>1.765528744446015</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.739531943017929</v>
@@ -28894,7 +28858,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.738019902251022</v>
+        <v>1.756951333913243</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.801652931876233</v>
@@ -28983,7 +28947,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.699836138959226</v>
+        <v>1.718195970362899</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.568676739082898</v>
@@ -29072,7 +29036,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.684605205645592</v>
+        <v>1.704607565329322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.603086870981913</v>
@@ -29161,7 +29125,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.684231115565506</v>
+        <v>1.706663772150878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.681847861932962</v>
@@ -29250,7 +29214,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.671367951836577</v>
+        <v>1.695639037502212</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.598327979932472</v>
@@ -29339,7 +29303,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.659008692101966</v>
+        <v>1.686591449686769</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.624814160412718</v>
@@ -29428,7 +29392,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.635304773881909</v>
+        <v>1.660801681453175</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.658039364050286</v>
@@ -29517,7 +29481,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.636070040588315</v>
+        <v>1.659792350342636</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.640974379926393</v>
@@ -29606,7 +29570,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632503435015194</v>
+        <v>1.654520506696858</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.718835340517684</v>
@@ -29695,7 +29659,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.635540087746049</v>
+        <v>1.656649143645901</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.562927690818569</v>
@@ -29784,7 +29748,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61759698058713</v>
+        <v>1.642753901962825</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.713925076420471</v>
@@ -29873,7 +29837,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61784013445469</v>
+        <v>1.642401033345666</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.628792982333559</v>
@@ -29962,7 +29926,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.641736172797426</v>
+        <v>1.669431519418108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.756836418352155</v>
@@ -30051,7 +30015,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580103216402738</v>
+        <v>1.610716544581501</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.482253818812717</v>
@@ -30140,7 +30104,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.549859669620179</v>
+        <v>1.581001936673773</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.319836483332689</v>
@@ -30229,7 +30193,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562845061990246</v>
+        <v>1.593341754831011</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.371448284446461</v>
@@ -30318,7 +30282,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.590589506853289</v>
+        <v>1.62347810435424</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.547633940264284</v>
@@ -30407,7 +30371,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.636065326469021</v>
+        <v>1.667477199876722</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.552231019829806</v>
@@ -30496,7 +30460,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.65113279535892</v>
+        <v>1.681948985474051</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.535554845403825</v>
@@ -30585,7 +30549,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.680527782617298</v>
+        <v>1.708983888479006</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530148412624978</v>
@@ -30674,7 +30638,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710663083422615</v>
+        <v>1.734870288524939</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.284572967028443</v>
@@ -30763,7 +30727,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.732227465262857</v>
+        <v>1.753503897534708</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.702694206877582</v>
@@ -30852,7 +30816,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.732250605337858</v>
+        <v>1.757379762836507</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.715998353447882</v>
@@ -30941,7 +30905,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.735328246434768</v>
+        <v>1.762318325181216</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.810844235689216</v>
@@ -31030,7 +30994,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.733516892972876</v>
+        <v>1.761527829093352</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.740042182291146</v>
@@ -31119,7 +31083,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.761192537503852</v>
+        <v>1.787194005366551</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.793361844362361</v>
@@ -31208,7 +31172,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.782723460732679</v>
+        <v>1.804571288345505</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.818083223132693</v>
@@ -31297,7 +31261,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.802571376399642</v>
+        <v>1.819181239514698</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.675615104023144</v>
